--- a/DECS Excel Add-Ins/test files/dummy_data.xlsx
+++ b/DECS Excel Add-Ins/test files/dummy_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucsdhs-my.sharepoint.com/personal/kjdelaney_health_ucsd_edu/Documents/Documents/GitHub/DECS Office Add-Ins/DECS Excel Add-Ins/test files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DECS-Office-AddIns\DECS Excel Add-Ins\test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_2BB1D69C5B605F22072DA173563088B35299F2E8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3952C31E-0625-4678-85EA-0DB2E9A75600}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6695A2-9819-4343-96AE-BD09FF569474}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>`Date of Exam: 4-1-2023. Air pressure: 1234.5 mBar.'</t>
-  </si>
-  <si>
-    <t>`Date of Exam: 05/30/1979. Air temparature: 99.0 °F. air pressure: .`</t>
   </si>
   <si>
     <r>
@@ -75,6 +72,9 @@
       </rPr>
       <t>F. air pressure:  1234.6 mBar.`</t>
     </r>
+  </si>
+  <si>
+    <t>`Date of Exam: 30 May 1979. Air temparature: 99.0 °F. air pressure: .`</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,7 @@
         <v>3456</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -515,7 +515,7 @@
         <v>4567</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>

--- a/DECS Excel Add-Ins/test files/dummy_data.xlsx
+++ b/DECS Excel Add-Ins/test files/dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DECS-Office-AddIns\DECS Excel Add-Ins\test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6695A2-9819-4343-96AE-BD09FF569474}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6448AD0E-5644-43BC-A821-7319C951EC09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
     </r>
   </si>
   <si>
-    <t>`Date of Exam: 30 May 1979. Air temparature: 99.0 °F. air pressure: .`</t>
+    <t>`Date of Exam: 7-5-1975, 30 May 1979, Jan. 01, 1995 . Air temparature: 99.0 °F. air pressure: .`</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DECS Excel Add-Ins/test files/dummy_data.xlsx
+++ b/DECS Excel Add-Ins/test files/dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DECS-Office-AddIns\DECS Excel Add-Ins\test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6448AD0E-5644-43BC-A821-7319C951EC09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5257282E-D8D3-4278-80A8-3133C45DEB70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>`Date of Exam: 12/25/1999. Air temperature: 79.0 degF. Air pressure: 1013.2 mBar.`</t>
-  </si>
-  <si>
-    <t>`Date of Exam: 4-1-2023. Air pressure: 1234.5 mBar.'</t>
   </si>
   <si>
     <r>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>`Date of Exam: 7-5-1975, 30 May 1979, Jan. 01, 1995 . Air temparature: 99.0 °F. air pressure: .`</t>
+  </si>
+  <si>
+    <t>`Date of Exam: 4-1-2023, April 1st, 2023, May 2nd, 2023, June 3rd, 2023, July 4th, 2023. Air pressure: 1234.5 mBar.'</t>
   </si>
 </sst>
 </file>
@@ -446,12 +446,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="82.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>2354</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -501,7 +501,7 @@
         <v>3456</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -515,7 +515,7 @@
         <v>4567</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>

--- a/DECS Excel Add-Ins/test files/dummy_data.xlsx
+++ b/DECS Excel Add-Ins/test files/dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DECS-Office-AddIns\DECS Excel Add-Ins\test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5257282E-D8D3-4278-80A8-3133C45DEB70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B6E4C3-9263-4ABD-A1EE-512EFE4B9C50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>MRN</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>`Date of Exam: 4-1-2023, April 1st, 2023, May 2nd, 2023, June 3rd, 2023, July 4th, 2023. Air pressure: 1234.5 mBar.'</t>
+  </si>
+  <si>
+    <t>`Date of Exam: 4-1-2023, April 1st, 2023. Date of Exam: May 2nd, 2023, June 3rd, 2023, July 4th, 2023. Air pressure: 1234.5 mBar.'</t>
   </si>
 </sst>
 </file>
@@ -442,16 +445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15:B16"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="101.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,6 +525,14 @@
       </c>
       <c r="D5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2354</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/DECS Excel Add-Ins/test files/dummy_data.xlsx
+++ b/DECS Excel Add-Ins/test files/dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DECS-Office-AddIns\DECS Excel Add-Ins\test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B6E4C3-9263-4ABD-A1EE-512EFE4B9C50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8575E9-23E4-4548-A279-748AEDEC84D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,10 +74,10 @@
     <t>`Date of Exam: 7-5-1975, 30 May 1979, Jan. 01, 1995 . Air temparature: 99.0 °F. air pressure: .`</t>
   </si>
   <si>
-    <t>`Date of Exam: 4-1-2023, April 1st, 2023, May 2nd, 2023, June 3rd, 2023, July 4th, 2023. Air pressure: 1234.5 mBar.'</t>
-  </si>
-  <si>
     <t>`Date of Exam: 4-1-2023, April 1st, 2023. Date of Exam: May 2nd, 2023, June 3rd, 2023, July 4th, 2023. Air pressure: 1234.5 mBar.'</t>
+  </si>
+  <si>
+    <t>`Date of Exam: 4-1-2023, 05-02-2024. April 1st, 2023, May 2nd, 2023, June 3rd, 2023, July 4th, 2023. Air pressure: 1234.5 mBar.'</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +490,7 @@
         <v>2354</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -532,7 +532,7 @@
         <v>2354</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/DECS Excel Add-Ins/test files/dummy_data.xlsx
+++ b/DECS Excel Add-Ins/test files/dummy_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DECS-Office-AddIns\DECS Excel Add-Ins\test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8575E9-23E4-4548-A279-748AEDEC84D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE281C8-8C85-41E9-97D1-5A223D621DD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>REPORT</t>
-  </si>
-  <si>
-    <t>`Date of Exam: 12/25/1999. Air temperature: 79.0 degF. Air pressure: 1013.2 mBar.`</t>
   </si>
   <si>
     <r>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>`Date of Exam: 4-1-2023, 05-02-2024. April 1st, 2023, May 2nd, 2023, June 3rd, 2023, July 4th, 2023. Air pressure: 1234.5 mBar.'</t>
+  </si>
+  <si>
+    <t>`Date of Exam: 12/25/1999. Air temperature: 79.0 degF. Air pressure: 1013.2 mBar. Air temperature: 81.0 degF`</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
         <v>1234</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -490,7 +490,7 @@
         <v>2354</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -504,7 +504,7 @@
         <v>3456</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -518,7 +518,7 @@
         <v>4567</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -532,7 +532,7 @@
         <v>2354</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DECS Excel Add-Ins/test files/dummy_data.xlsx
+++ b/DECS Excel Add-Ins/test files/dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DECS-Office-AddIns\DECS Excel Add-Ins\test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE281C8-8C85-41E9-97D1-5A223D621DD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91392E5B-79B4-4829-A08E-9BA2B9EC888B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>MRN</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>`Date of Exam: 12/25/1999. Air temperature: 79.0 degF. Air pressure: 1013.2 mBar. Air temperature: 81.0 degF`</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>7/4/1776</t>
+  </si>
+  <si>
+    <t>`pH: 10.9 TDS 300.`</t>
   </si>
 </sst>
 </file>
@@ -132,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -143,6 +152,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,7 +459,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +539,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2354</v>
+        <v>5678</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -543,48 +553,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA3A826-9B8D-4E37-8CFF-3AC9A5AFB1E7}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1234</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2354</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4">
+        <v>29005</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3456</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4">
+        <v>36312</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2354</v>
+      </c>
+      <c r="B5" s="4">
+        <v>29214</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
